--- a/Data/AllResults.xlsx
+++ b/Data/AllResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275CBA6-BD7D-4584-BDC0-B5845D3E2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F5772-75A7-416E-9D5D-BDAA5F0F3950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="597">
   <si>
     <t>Molecule</t>
   </si>
@@ -33,7 +33,1662 @@
     <t>Alternates</t>
   </si>
   <si>
-    <t>Other details</t>
+    <t>Other details - MRP</t>
+  </si>
+  <si>
+    <t>Bacterial Infections</t>
+  </si>
+  <si>
+    <t>RxRequired</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>Country Of Origin</t>
+  </si>
+  <si>
+    <t>Generic Name</t>
+  </si>
+  <si>
+    <t>Synopsis</t>
+  </si>
+  <si>
+    <t>Image Links</t>
+  </si>
+  <si>
+    <t>MEROPENEM 1GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meromac 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹710.50</t>
+  </si>
+  <si>
+    <t>Rx required</t>
+  </si>
+  <si>
+    <t>Macleods Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t>* Country of Origin: India</t>
+  </si>
+  <si>
+    <t>Meropenem 1000 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :    Injection ; Therapeutic Indication :  
+Bacterial infections ; Pharmacological Category :  
+Carbapenem Antibiotics ; Drug :  
+Meropenem ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/347877/meromac_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mero 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹749.00</t>
+  </si>
+  <si>
+    <t>Aristo Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/379113/mero_1gm_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merotec 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1018.00</t>
+  </si>
+  <si>
+    <t>Zuventus Healthcare Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/304801/merotec_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/304801/merotec_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/304801/merotec_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/304801/merotec_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/304801/merotec_1gm_injection_1s_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merotrol 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹734.83</t>
+  </si>
+  <si>
+    <t>Lupin Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/389725/merotrol_1gm_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merosure 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹960.00</t>
+  </si>
+  <si>
+    <t>Alkem Laboratories Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632209_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632208_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632207_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_44753_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632209_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632208_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632207_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_44753_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/371387/merosure_1gm_injection_1s_632209_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROCRIT 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹858.00</t>
+  </si>
+  <si>
+    <t>Cipla Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922584/merocrit_1gm_injection_1s_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acupenem 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹876.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/835710/acupenem_1gm_injection_1s_5_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merrobe 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1040.00</t>
+  </si>
+  <si>
+    <t>Glenmark Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483214_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483213_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483212_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483211_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483210_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483214_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483213_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483212_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483211_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483210_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/827188/merrobe_1gm_injection_1s_483214_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emstar 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹800.60</t>
+  </si>
+  <si>
+    <t>Emcure Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/formulation_based/injections.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merobax 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1313.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/321177/merobax_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meronem 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹2979.00</t>
+  </si>
+  <si>
+    <t>Pfizer Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/309604/meronem_1gm_injection_1_s_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERIT 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1650.00</t>
+  </si>
+  <si>
+    <t>IKON PHARMACHEM PVT LTD</t>
+  </si>
+  <si>
+    <t>Meropenem 1 gm</t>
+  </si>
+  <si>
+    <t>Synopsis ---&gt; No element Found - Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587166_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587165_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587164_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587163_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587162_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587166_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587165_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587164_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587163_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587162_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1075480/merit_1gm_injection_1s_587166_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROSAK 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹999.90</t>
+  </si>
+  <si>
+    <t>SAKSHAM PHARMACEUTICALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585269_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585268_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585267_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585266_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585269_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585268_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585267_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585266_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069185/merosak_1gm_injection_1s_585269_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROCIL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1999.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609830_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609829_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609828_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609827_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609830_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609829_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609828_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609827_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1069180/merocil_1gm_injection_1s_609830_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROSEAL Injection 1gm </t>
+  </si>
+  <si>
+    <t>MRP ₹999.00</t>
+  </si>
+  <si>
+    <t>Converge Biotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004770/meroseal_injection_1gm_3_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROPENEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error in fetching element - MICROPENEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRALIN 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1067.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROBULL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Indiabulls Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515933_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515932_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515931_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515933_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515932_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515931_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/967381/merobull_1gm_injection_1s_515933_2_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Zyphars Pharmaceutics Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROTICS 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>BIOTICS LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROWAL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2500.00</t>
+  </si>
+  <si>
+    <t>Wallace Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROSTAL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1250.00</t>
+  </si>
+  <si>
+    <t>STALLION LABORATORIES PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465911_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465910_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465909_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465908_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465907_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465911_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465910_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465909_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465908_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465907_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932080/merostal_1gm_injection_1s_465911_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROBAT 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>OBAT MEDICARE PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROLEX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹619.00</t>
+  </si>
+  <si>
+    <t>UNILEX LIFESCIENCES PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROVAZ 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2330.55</t>
+  </si>
+  <si>
+    <t>Cadila Healthcare Ltd (Zydus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/918884/merovaz_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROTUNE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>FORTUNE LABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROPIN 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>PINARC LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROFIT 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Fusion Healthcare Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERONEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Septalyst Lifesciences Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXZA 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹699.00</t>
+  </si>
+  <si>
+    <t>Biocon Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/891275/ixza_1gm_injection_1s_689984_0_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eupen 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Neon Laboratories Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415169_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415168_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415167_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415166_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415169_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415168_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415167_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415166_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/388340/eupen_1gm_injection_1s_415169_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troypenem 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Troikaa Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penmer 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/376131/penmer_1gm_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROSHAN 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>SHANKUS ACME PHARMA PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACMERO 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUROPEN 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>VEE MEDIBIOTECH INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROFORTE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERNEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERPY 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Abbott Healthcare Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERONEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1089.00</t>
+  </si>
+  <si>
+    <t>NEPHUROCARE PHARMA PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Rb Pharmaceuticals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROCOS 1gm Injection 30ml </t>
+  </si>
+  <si>
+    <t>ATLINA LIFESCIENCES PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZENEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2200.00</t>
+  </si>
+  <si>
+    <t>Oscar Remedies Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516101_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516100_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516099_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516098_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516097_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516101_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516100_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516099_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516098_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516097_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1052899/zenem_1gm_injection_1s_516101_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYBACK 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2450.00</t>
+  </si>
+  <si>
+    <t>Innovative Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROHUGE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Mankind Pharma Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_483527_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_483526_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474988_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474987_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474986_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474985_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_483527_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_483526_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474988_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474987_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474986_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_474985_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028590/merohuge_1gm_injection_1s_483527_5_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACEMERO 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹4820.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483520_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483519_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483518_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483517_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483516_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483515_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483520_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483519_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483518_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483517_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483516_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483515_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1019292/pacemero_1gm_injection_1s_483520_5_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEROPIK EDTA 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Alniche Life Sciences Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESONEM Injection 1gm </t>
+  </si>
+  <si>
+    <t>Fresenius Kabi India Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G PENEM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>KAINOSIS PHARMACEUTICALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENEM Injection 1gm </t>
+  </si>
+  <si>
+    <t>Overseas Pharma Pvt Ltd</t>
+  </si>
+  <si>
+    <t>* Country of Origin: NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403739_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403738_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403737_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403739_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403738_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403737_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041456/openem_injection_1gm_403739_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE 1GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocef 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹62.32</t>
+  </si>
+  <si>
+    <t>Ceftriaxone 1000 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection ; Therapeutic Indication :   Treats Bacterial infections ; Pharmacological Category :   Cephalosporin Antibiotics ; Drug :   Ceftriaxone ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/396388/monocef_1gm_injection_1s_5_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹60.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653883_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653882_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653881_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_43515_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653883_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653882_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653881_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_43515_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/360097/xone_1gm_injection_1s_653883_3_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefaxone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹28.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/325123/cefaxone_1gm_injection_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montaz 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹215.00</t>
+  </si>
+  <si>
+    <t>Ceftriaxone 1000 mg+Tazobactam 125 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection ; Therapeutic Indication :   Bacterial Infections ; Pharmacological Category :   Antibiotics ; Drug :   Ceftriaxone, Tazobactam ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666897_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666896_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666895_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_42943_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666897_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666896_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666895_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_42943_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/353592/montaz_1gm_injection_1s_666897_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOCEF 1gm Injection 10ml </t>
+  </si>
+  <si>
+    <t>₹48.65</t>
+  </si>
+  <si>
+    <t>Leeford Healthcare Ltd (Generics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696775_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696760_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696759_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696758_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_251433_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696775_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696760_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696759_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696758_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_251433_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/978457/biocef_1gm_injection_10ml_696775_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STACEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹60.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483654_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483653_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483652_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483651_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483650_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483654_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483653_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483652_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483651_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483650_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/932141/stacef_1gm_injection_1s_483654_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefbact 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹67.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_356850_4_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353340_3_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353339_2_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353338_1_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353336_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_356850_4_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353340_3_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353339_2_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353338_1_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_353336_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/389286/cefbact_1gm_injection_1s_356850_4_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maczone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/376416/maczone_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/376416/maczone_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/376416/maczone_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/376416/maczone_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/376416/maczone_1gm_injection_1s_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentrax 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹64.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411408_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411407_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411406_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411405_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411408_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411407_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411406_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411405_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/370548/gentrax_1gm_injection_1s_411408_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuzon 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹69.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/354028/accuzon_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/354028/accuzon_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/354028/accuzon_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/354028/accuzon_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/354028/accuzon_1gm_injection_1s_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monotax 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660616_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660615_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660614_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_42583_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660616_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660615_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660614_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_42583_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/350905/monotax_1gm_injection_1s_660616_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finecef 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹48.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/318469/finecef_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFTAVAG 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹43.62</t>
+  </si>
+  <si>
+    <t>PREVEGO HEALTHCARE &amp; RESEARCH PRIVATE LIMITED (Generics)</t>
+  </si>
+  <si>
+    <t>Ceftriaxone 1 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1048174/ceftavag_1gm_injection_1s_422559_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1048174/ceftavag_1gm_injection_1s_422558_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1048174/ceftavag_1gm_injection_1s_422559_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1048174/ceftavag_1gm_injection_1s_422558_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1048174/ceftavag_1gm_injection_1s_422559_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMISAFE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466109_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466108_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466107_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466106_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466105_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466109_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466108_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466107_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466106_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466105_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1047576/omisafe_1gm_injection_1s_466109_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocef SB 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹190.00</t>
+  </si>
+  <si>
+    <t>Ceftriaxone 1 gm+Sulbactam 500 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection ; Therapeutic Indication :   Bacterial infections ; Pharmacological Category :   Cephalosporin antibiotic and Beta-lactamase inhibitors ; Drug :   Ceftriaxone and Sulbactam ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_9_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_8_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_7_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_9_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_8_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_7_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/395419/monocef_sb_1gm_injection_1s_9_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Tri 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹60.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833584/c_tri_1gm_injection_1s_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maczone XP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹217.50</t>
+  </si>
+  <si>
+    <t>Ceftriaxone 1 gm+Tazobactam 125 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_5_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/377768/maczone_xp_1gm_injection_1s_5_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monotax XP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹204.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455700_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455699_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455697_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455700_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455699_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455697_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350908/monotax_xp_1gm_injection_1s_455700_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFTIROL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹60.20</t>
+  </si>
+  <si>
+    <t>UNIVENTIS MEDICARE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>ENITIO HEALTHCARE PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/983657/encef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/983657/encef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/983657/encef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/983657/encef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/983657/encef_1gm_injection_1s_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>An Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOKCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>BIODISCOVERY LIFESCIENCES PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLO 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARTRIAX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Bharti Life Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFRACEL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>AISHWARYA HEALTHCARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAXTEL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>INTEL PHARMACEUTICALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVICEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹62.00</t>
+  </si>
+  <si>
+    <t>Lividus Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/931592/livicef_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINTRIX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹56.46</t>
+  </si>
+  <si>
+    <t>MEDIRIN PHARMACEUTICALS PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREDZONE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>AESTON LIFESCIENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXZONE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>GURNEX BIOTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹52.30</t>
+  </si>
+  <si>
+    <t>Best Biotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMINATE 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹58.00</t>
+  </si>
+  <si>
+    <t>Genesis Biotech Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVOCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹54.79</t>
+  </si>
+  <si>
+    <t>DIVINE HEALTHCARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFTRASET 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>BIOSYNC PHARMACEUTICALS PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/920129/ceftraset_1gm_injection_1s_0_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIZON 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹56.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLOCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹59.00</t>
+  </si>
+  <si>
+    <t>MEDILIFE HEALTH SCIENCES PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUCETEX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹61.00</t>
+  </si>
+  <si>
+    <t>Nuwill Biotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFROCK 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFTRIL 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Tablets India Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFOGRAM 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹69.87</t>
+  </si>
+  <si>
+    <t>Orchid Chemicals &amp; Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEFT 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Regalia Pharmaceuticals India Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cewar 1Gm Injection 1ml </t>
+  </si>
+  <si>
+    <t>MRP ₹50.60</t>
+  </si>
+  <si>
+    <t>Bio Warriors Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefbull 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹51.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decef 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>East West Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trixon 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹52.20</t>
+  </si>
+  <si>
+    <t>Lincoln Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefxi 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>Medley Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powercef 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹60.51</t>
+  </si>
+  <si>
+    <t>Dr. Reddy's Laboratories Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/400567/powercef_1gm_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹50.35</t>
+  </si>
+  <si>
+    <t>Cadila Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/397369/axone_1gm_injection_1s_675346_0_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zetri 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹50.34</t>
+  </si>
+  <si>
+    <t>Aequitas Health Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suprava 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398561_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398560_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398559_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398558_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398557_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398561_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398560_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398559_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398558_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398557_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/375041/suprava_1gm_injection_1s_398561_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Aurz Pharmaceutical Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tazox 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹184.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyceft 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹63.75</t>
+  </si>
+  <si>
+    <t>Hetero Healthcare Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/352459/lyceft_1gm_injection_1s_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oframax 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹46.90</t>
+  </si>
+  <si>
+    <t>Ranbaxy Laboratories Ltd (Generics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590588_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590587_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590586_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_42584_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590588_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590587_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590586_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_42584_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/350906/oframax_1gm_injection_1s_590588_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tazocef 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹356.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odicef 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Galpha Laboratories Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kexone 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹61.83</t>
+  </si>
+  <si>
+    <t>Medispan Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNOCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXXOCEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>₹41.36</t>
+  </si>
+  <si>
+    <t>Maxx Farmacia India Llp (Generics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1087127/maxxocef_1gm_injection_1s_549422_0_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONTACEF 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Onesta Lifecare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFMAC 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Ikon Remedies Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515966_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515965_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515964_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515963_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515962_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515966_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515965_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515964_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515963_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515962_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1046794/cefmac_1gm_injection_1s_515966_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEEMI CX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Winsome Laboratories Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFTROX Injection 1gm </t>
+  </si>
+  <si>
+    <t>Laborate Pharmaceuticals India Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C FAX 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>DIVINE SAVIOR PVT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V Tri 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>Tms India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefbact T 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹259.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/389316/cefbact_t_1gm_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zifi XP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹284.00</t>
+  </si>
+  <si>
+    <t>FDC Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traxol T 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹187.00</t>
+  </si>
+  <si>
+    <t>Cachet Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefakind XP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹248.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swich XP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹231.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/303537/swich_xp_1gm_injection_1s_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCEF Injection 1gm </t>
+  </si>
+  <si>
+    <t>Franklin Laboratories (India) Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPICURE Injection 1gm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403736_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403735_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403734_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403733_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403736_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403735_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403734_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403733_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1041454/opicure_injection_1gm_403736_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XONE CEFF (COMBIPACK) 1gm Injection 10ml </t>
+  </si>
+  <si>
+    <t>MRP ₹67.85</t>
+  </si>
+  <si>
+    <t>Lupin Ltd (Generics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/922143/xone_ceff_combipack_1gm_injection_10ml_698822_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922143/xone_ceff_combipack_1gm_injection_10ml_698821_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922143/xone_ceff_combipack_1gm_injection_10ml_698822_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922143/xone_ceff_combipack_1gm_injection_10ml_698821_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/922143/xone_ceff_combipack_1gm_injection_10ml_698822_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Tri XP 1gm Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹192.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833594/c_tri_xp_1gm_injection_1s_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t>CLINDAMYCIN 600MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalacin C 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>₹337.80</t>
+  </si>
+  <si>
+    <t>Clindamycin 150 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection, Tablet, Capsule, Gel, Cream, Lotion, Solution, Spray, Soap ; Therapeutic Indication :   Serious bacterial infections ; Pharmacological Category :   Lincosamides ; Drug :   Clindamycin ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/331995/dalacin_c_600mg_injection_4ml_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGYCLIN 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹178.70</t>
+  </si>
+  <si>
+    <t>United Biotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Clindamycin 600 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinet 600Mg Injection 2ml </t>
+  </si>
+  <si>
+    <t>MRP ₹103.75</t>
+  </si>
+  <si>
+    <t>Bennet Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camyda 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹349.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489432_4_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489431_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489430_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489429_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489428_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489432_4_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489431_3_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489430_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489429_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489428_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/823249/camyda_600mg_injection_4ml_489432_4_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clindol 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹160.95</t>
+  </si>
+  <si>
+    <t>Venus Remedies Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinzucia 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹181.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clamin 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹227.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823226/clamin_600mg_injection_4ml_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clindum 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹297.00</t>
+  </si>
+  <si>
+    <t>Gland Pharma Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/823217/clindum_600mg_injection_4ml_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clindatec 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹191.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINVIVA 600mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹265.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINBID 600mg Injection 4ml </t>
+  </si>
+  <si>
+    <t>MRP ₹226.60</t>
+  </si>
+  <si>
+    <t>TEICOPLANIN 400MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticogem 400mg Injection 1ml </t>
+  </si>
+  <si>
+    <t>MRP ₹1360.00</t>
+  </si>
+  <si>
+    <t>Teicoplanin 400 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection ; Therapeutic Indication :   Various bacterial infections ; Pharmacological Category :   Glycopeptide antibiotic ; Drug :   Teicoplanin ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/839284/ticogem_400mg_injection_1ml_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targocid 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2432.15</t>
+  </si>
+  <si>
+    <t>Sanofi India Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/369844/targocid_400mg_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Planin 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2412.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_8_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_7_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_6_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_8_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_7_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_6_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/345837/t_planin_400mg_injection_1s_8_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecoplan 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1390.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEICOCORD 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1590.00</t>
+  </si>
+  <si>
+    <t>CONCORD BIOTECH LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEO 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1399.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celplanin 400Mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1280.00</t>
+  </si>
+  <si>
+    <t>Celon Laboratories Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/860393/celplanin_400mg_injection_1s_685942_0_1.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zicoplanin 400mg Injection 10ml </t>
+  </si>
+  <si>
+    <t>MRP ₹1500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forplus 400mg Injection 1'S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/833654/forplus_400mg_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texoplan 400mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1690.40</t>
+  </si>
+  <si>
+    <t>Samarth Life Sciences Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teicostat 400mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1299.00</t>
+  </si>
+  <si>
+    <t>Rpg Life Sciences Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teconin 400mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1562.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticoray 400mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>Mylan Pharmaceuticals Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticovan 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹1768.00</t>
+  </si>
+  <si>
+    <t>Sun Pharmaceutical Industries Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/413790/ticovan_400mg_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticocin 400mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2714.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/394477/ticocin_400mg_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEICOBID 400mg Injection 10ml </t>
+  </si>
+  <si>
+    <t>MRP ₹2150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEICOQUIN 400 MG Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIPLANIN Injection 400mg </t>
+  </si>
+  <si>
+    <t>MRP ₹1925.00</t>
+  </si>
+  <si>
+    <t>LINEZOLID 600MG/300ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linetic 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹532.00</t>
+  </si>
+  <si>
+    <t>Linezolid 600 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Tablet, Dispersible Tablet, Injection, Infusion, Dry Syrup, Syrup, Oral suspension ; Therapeutic Indication :   Pneumonia, Skin infections, Vancomycin-resistant enterococcus faecium infections ; Pharmacological Category :   Oxazolidinone antibiotic ; Drug :   Linezolid ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/411759/linetic_600mg_injection_300ml_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNZ 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹678.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_2_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_1_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_0_1.jpg ; https://www.netmeds.com/images/product-v1/600x600/400061/lnz_600mg_injection_300ml_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linid IV 600mg Infusion 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹671.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/342919/linid_infusion_300ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/342919/linid_infusion_300ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/342919/linid_infusion_300ml_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/342919/linid_infusion_300ml_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/342919/linid_infusion_300ml_1_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIZOLID 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹599.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lintran 600mg Infusion 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹325.24</t>
+  </si>
+  <si>
+    <t>Shreya Life Sciences Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :  
+Tablet, Dispersible Tablet, Injection, Infusion, Dry Syrup, Syrup, Oral suspension ; Therapeutic Indication :  
+Pneumonia, Skin infections, Vancomycin-resistant enterococcus faecium infections ; Pharmacological Category :   Oxazolidinone antibiotic ; Drug :   Linezolid ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/formulation_based/infusions.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibizolid 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹258.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LND 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹415.00</t>
+  </si>
+  <si>
+    <t>Akumentis Healthcare Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINOLET 600mg Infusion 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹425.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIZOBACT 600mg Injection 300ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linosept Iv 600Mg Injection 300ml </t>
+  </si>
+  <si>
+    <t>MRP ₹350.00</t>
+  </si>
+  <si>
+    <t>Micro Labs Ltd</t>
+  </si>
+  <si>
+    <t>TIGECYCLINE 50MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tgkem 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1420.00</t>
+  </si>
+  <si>
+    <t>Tigecycline 50 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection ; Therapeutic Indication :   Complicated infection of the skin, soft tissues and abdomen ; Pharmacological Category :   Glycylcycline ; Drug :   Tigecycline ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_4_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_3_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_2_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_1_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_4_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_3_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_2_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_1_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_0_2.jpg ; https://www.netmeds.com/images/product-v1/600x600/838845/tgkem_50mg_injection_1s_4_2.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emtig 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹6195.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tygaray 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹1315.00</t>
+  </si>
+  <si>
+    <t>Viatris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/800599/tygaray_50mg_injection_1s_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGICON 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹3850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRITIG 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2499.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigiprime 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹3682.50</t>
+  </si>
+  <si>
+    <t>Veritaz Healthcare Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibitig 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹549.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigestat 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹3162.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigeniche 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹2678.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gecycle 50mg Injection 1ml </t>
+  </si>
+  <si>
+    <t>MRP ₹3087.50</t>
+  </si>
+  <si>
+    <t>Indoco Remedies Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigeplug 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹3000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiziren 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹3792.00</t>
+  </si>
+  <si>
+    <t>La Renon Healthcare Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescade 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹2970.00</t>
+  </si>
+  <si>
+    <t>Astrazeneca Pharma India Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tisam 50mg Injection 1ml </t>
+  </si>
+  <si>
+    <t>MRP ₹3613.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiganex 50mg Injection 5ml </t>
+  </si>
+  <si>
+    <t>MRP ₹4760.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/414076/tiganex_50mg_injection_5ml_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigez 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>₹2344.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigi 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹2800.00</t>
+  </si>
+  <si>
+    <t>Natco Pharma Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/340759/tigi_50mg_injection_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tygacil 50mg Injection 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹4182.00</t>
+  </si>
+  <si>
+    <t>* Country of Origin: Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413802_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413801_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413800_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413802_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413801_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413800_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/329067/tygacil_50mg_injection_1s_413802_2_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigebax 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹4292.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGEZIDE 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹3450.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGEWIN 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGECROSS 50mg Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹4850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461522_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461521_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461520_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461519_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461522_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461521_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461520_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461519_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1028966/tigecross_50mg_injection_1s_461522_3_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESOTIG Injection 50mg </t>
+  </si>
+  <si>
+    <t>MRP ₹1499.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het TG 50mg Infusion 1'S </t>
+  </si>
+  <si>
+    <t>MRP ₹2544.60</t>
+  </si>
+  <si>
+    <t>VANCOMYCIN 1GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vancogram 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>MRP ₹440.37</t>
+  </si>
+  <si>
+    <t>Vancomycin 1000 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Tablet, Capsule, Injection ; Therapeutic Indication :   Used to treat endocarditis, pneumonia infections of the skin, infections of bone and joints, infections of central nervous system           ; Pharmacological Category :   Glycopeptides ; Drug :   Vancomycin ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_4_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/413338/vancogram_1gm_injection_1s_4_0.jpg ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCOCIP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansafe CP 1gm Injection 1's </t>
+  </si>
+  <si>
+    <t>Vhb Pharma Pvt Ltd</t>
   </si>
   <si>
     <t>DOXYCYCLINE 100MG</t>
@@ -42,22 +1697,10 @@
     <t xml:space="preserve">DOXT 100mg Combipack Injection 10ml </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹653.25</t>
-  </si>
-  <si>
-    <t>Bacterial Infections---&gt; Bacterial Infections</t>
-  </si>
-  <si>
-    <t>RxRequired---&gt; Rx required</t>
-  </si>
-  <si>
-    <t>MKT---&gt; Dr. Reddy's Laboratories Ltd</t>
-  </si>
-  <si>
-    <t>Country Of origin---&gt; * Country of Origin: India</t>
-  </si>
-  <si>
-    <t>Generic Name---&gt; Doxycycline 100 mg</t>
+    <t>MRP ₹653.25</t>
+  </si>
+  <si>
+    <t>Doxycycline 100 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Injection, Combipack injection, Tablet, Capsule ; Therapeutic Indication :   Bacterial infections in different parts of body ; Pharmacological Category :   Tetracyclines ; Drug :   Doxycycline ; </t>
@@ -69,13 +1712,10 @@
     <t xml:space="preserve">DOXYZONE 100mg Tablet 10's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹79.50</t>
-  </si>
-  <si>
-    <t>MKT---&gt; Ikon Remedies Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Generic Name---&gt; Doxycycline 100 mg+Lactic Acid Bacillus 60 billion spores</t>
+    <t>MRP ₹79.50</t>
+  </si>
+  <si>
+    <t>Doxycycline 100 mg+Lactic Acid Bacillus 60 billion spores</t>
   </si>
   <si>
     <t xml:space="preserve">Synopsis ---&gt; Dosage Forms :   Tablet, Capsule ; Therapeutic Indication :   Intra-abdominal bacterial infection, Antibiotic associated diarrhoea ; Pharmacological Category :   Tetracycline antibiotics, Probiotics ; Drug :   Doxycycline, Lactic acid bacillus ; </t>
@@ -87,7 +1727,7 @@
     <t xml:space="preserve">DOXYZONE 100mg Injection 2ml </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹595.00</t>
+    <t>MRP ₹595.00</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661884_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661883_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661882_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661881_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661884_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661883_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661882_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661881_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1049146/doxyzone_100mg_injection_2ml_661884_3_0.jpg ; </t>
@@ -96,10 +1736,7 @@
     <t xml:space="preserve">DOXYCET 100mg Tablet 10's </t>
   </si>
   <si>
-    <t>MKT---&gt; Innovative Pharmaceuticals Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Generic Name---&gt; Doxycycline 100 mg+Lactic Acid Bacillus 5 million spores</t>
+    <t>Doxycycline 100 mg+Lactic Acid Bacillus 5 million spores</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447021_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447020_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447019_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447021_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447020_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447019_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1045477/doxycet_100mg_tablet_10s_447021_2_0.jpg ; </t>
@@ -108,10 +1745,10 @@
     <t xml:space="preserve">BROSPEC 100mg Tablet 10's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹6.00</t>
-  </si>
-  <si>
-    <t>MKT---&gt; TERRACE PHARMACEUTICALS PVT LTD</t>
+    <t>MRP ₹6.00</t>
+  </si>
+  <si>
+    <t>TERRACE PHARMACEUTICALS PVT LTD</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/formulation_based/tablets.jpg ; </t>
@@ -120,10 +1757,10 @@
     <t xml:space="preserve">EUDOX 100mg Capsule 10's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹28.10</t>
-  </si>
-  <si>
-    <t>MKT---&gt; QUIXOTIC PHARMA PVT LTD</t>
+    <t>MRP ₹28.10</t>
+  </si>
+  <si>
+    <t>QUIXOTIC PHARMA PVT LTD</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488331_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488330_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488329_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488331_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488330_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488329_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/915551/eudox_100mg_capsule_10s_488331_2_0.jpg ; </t>
@@ -132,13 +1769,10 @@
     <t xml:space="preserve">DOXYLIN 100mg Capsule 4's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹12.32</t>
-  </si>
-  <si>
-    <t>MKT---&gt; Entod Pharmaceuticals Ltd</t>
-  </si>
-  <si>
-    <t>Country Of origin---&gt; * Country of Origin: NA</t>
+    <t>MRP ₹12.32</t>
+  </si>
+  <si>
+    <t>Entod Pharmaceuticals Ltd</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/formulation_based/capsules.jpg ; </t>
@@ -147,43 +1781,31 @@
     <t xml:space="preserve">DOXYLIN 100mg Tablet 10's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹13.66</t>
+    <t>MRP ₹13.66</t>
   </si>
   <si>
     <t xml:space="preserve">Difidox 100Mg Injection 1's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹509.00</t>
-  </si>
-  <si>
-    <t>MKT---&gt; Fusion Healthcare Pvt Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/formulation_based/injections.jpg ; </t>
+    <t>MRP ₹509.00</t>
   </si>
   <si>
     <t xml:space="preserve">Doxybuz 100mg Injection 1'S </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹410.00</t>
-  </si>
-  <si>
-    <t>MKT---&gt; Alniche Life Sciences Pvt Ltd</t>
+    <t>MRP ₹410.00</t>
   </si>
   <si>
     <t xml:space="preserve">DOXYCET 100mg Injection 1's </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹562.91</t>
+    <t>MRP ₹562.91</t>
   </si>
   <si>
     <t xml:space="preserve">Edox DT 100mg Tablet 8'S </t>
   </si>
   <si>
-    <t>MRP---&gt; MRP ₹54.01</t>
-  </si>
-  <si>
-    <t>MKT---&gt; East West Pharma</t>
+    <t>MRP ₹54.01</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/302214/edox_dt_100mg_tablet_8_s_0.jpg ; </t>
@@ -192,13 +1814,10 @@
     <t xml:space="preserve">OS DOXI 100mg Injection 1's </t>
   </si>
   <si>
-    <t>MKT---&gt; Oscar Remedies Pvt Ltd</t>
-  </si>
-  <si>
     <t xml:space="preserve">N DOX 100mg Injection 1's </t>
   </si>
   <si>
-    <t>MKT---&gt; Rhythm Pharma India Pvt Ltd</t>
+    <t>Rhythm Pharma India Pvt Ltd</t>
   </si>
   <si>
     <t xml:space="preserve">Image Links ---&gt; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_3_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_2_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_1_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_0_0.jpg ; https://www.netmeds.com/images/product-v1/600x600/1004250/n_dox_100mg_injection_1s_3_0.jpg ; </t>
@@ -520,17 +2139,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="255.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="246.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,1237 +2166,6565 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" t="s">
+        <v>164</v>
+      </c>
+      <c r="J52" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" t="s">
+        <v>164</v>
+      </c>
+      <c r="J53" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>170</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" t="s">
+        <v>164</v>
+      </c>
+      <c r="J57" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>185</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" t="s">
+        <v>164</v>
+      </c>
+      <c r="J61" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" t="s">
+        <v>164</v>
+      </c>
+      <c r="J62" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>198</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" t="s">
+        <v>164</v>
+      </c>
+      <c r="J63" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>201</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>203</v>
+      </c>
+      <c r="I64" t="s">
+        <v>164</v>
+      </c>
+      <c r="J64" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" t="s">
+        <v>164</v>
+      </c>
+      <c r="J65" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>208</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J67" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>175</v>
+      </c>
+      <c r="J68" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>217</v>
+      </c>
+      <c r="I69" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>223</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>163</v>
+      </c>
+      <c r="I70" t="s">
+        <v>164</v>
+      </c>
+      <c r="J70" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" t="s">
+        <v>164</v>
+      </c>
+      <c r="J71" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I72" t="s">
+        <v>164</v>
+      </c>
+      <c r="J72" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>162</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73" t="s">
+        <v>164</v>
+      </c>
+      <c r="J73" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J74" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>163</v>
+      </c>
+      <c r="I75" t="s">
+        <v>164</v>
+      </c>
+      <c r="J75" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I76" t="s">
+        <v>164</v>
+      </c>
+      <c r="J76" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>163</v>
+      </c>
+      <c r="I77" t="s">
+        <v>164</v>
+      </c>
+      <c r="J77" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>240</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>241</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>163</v>
+      </c>
+      <c r="I78" t="s">
+        <v>164</v>
+      </c>
+      <c r="J78" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>245</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" t="s">
+        <v>164</v>
+      </c>
+      <c r="J79" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>163</v>
+      </c>
+      <c r="I80" t="s">
+        <v>164</v>
+      </c>
+      <c r="J80" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>249</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" t="s">
+        <v>164</v>
+      </c>
+      <c r="J81" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>163</v>
+      </c>
+      <c r="I82" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>254</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>163</v>
+      </c>
+      <c r="I83" t="s">
+        <v>164</v>
+      </c>
+      <c r="J83" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>257</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" t="s">
+        <v>164</v>
+      </c>
+      <c r="J84" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>260</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>163</v>
+      </c>
+      <c r="I85" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>263</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" t="s">
+        <v>164</v>
+      </c>
+      <c r="J86" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>163</v>
+      </c>
+      <c r="I87" t="s">
+        <v>164</v>
+      </c>
+      <c r="J87" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>163</v>
+      </c>
+      <c r="I88" t="s">
+        <v>164</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>163</v>
+      </c>
+      <c r="I89" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>272</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>163</v>
+      </c>
+      <c r="I90" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>274</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>163</v>
+      </c>
+      <c r="I91" t="s">
+        <v>164</v>
+      </c>
+      <c r="J91" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>276</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>277</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>163</v>
+      </c>
+      <c r="I92" t="s">
+        <v>164</v>
+      </c>
+      <c r="J92" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>162</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" t="s">
+        <v>164</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>281</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>163</v>
+      </c>
+      <c r="I94" t="s">
+        <v>164</v>
+      </c>
+      <c r="J94" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" t="s">
+        <v>164</v>
+      </c>
+      <c r="J95" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>286</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" t="s">
+        <v>164</v>
+      </c>
+      <c r="J96" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>288</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>289</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I97" t="s">
+        <v>164</v>
+      </c>
+      <c r="J97" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>291</v>
+      </c>
+      <c r="G98" t="s">
+        <v>158</v>
+      </c>
+      <c r="H98" t="s">
+        <v>163</v>
+      </c>
+      <c r="I98" t="s">
+        <v>164</v>
+      </c>
+      <c r="J98" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>293</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>294</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" t="s">
+        <v>164</v>
+      </c>
+      <c r="J99" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>297</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>298</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>163</v>
+      </c>
+      <c r="I100" t="s">
+        <v>164</v>
+      </c>
+      <c r="J100" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>301</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
+      </c>
+      <c r="H101" t="s">
+        <v>163</v>
+      </c>
+      <c r="I101" t="s">
+        <v>164</v>
+      </c>
+      <c r="J101" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>167</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>163</v>
+      </c>
+      <c r="I102" t="s">
+        <v>164</v>
+      </c>
+      <c r="J102" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>306</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>163</v>
+      </c>
+      <c r="I103" t="s">
+        <v>164</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>217</v>
+      </c>
+      <c r="I104" t="s">
+        <v>175</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>310</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>311</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" t="s">
+        <v>164</v>
+      </c>
+      <c r="J105" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>314</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>315</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>163</v>
+      </c>
+      <c r="I106" t="s">
+        <v>164</v>
+      </c>
+      <c r="J106" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>318</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>291</v>
+      </c>
+      <c r="G107" t="s">
+        <v>158</v>
+      </c>
+      <c r="H107" t="s">
+        <v>217</v>
+      </c>
+      <c r="I107" t="s">
+        <v>175</v>
+      </c>
+      <c r="J107" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>320</v>
+      </c>
+      <c r="G108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H108" t="s">
+        <v>163</v>
+      </c>
+      <c r="I108" t="s">
+        <v>164</v>
+      </c>
+      <c r="J108" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>322</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" t="s">
+        <v>164</v>
+      </c>
+      <c r="J109" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>266</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110" t="s">
+        <v>61</v>
+      </c>
+      <c r="J110" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>326</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>163</v>
+      </c>
+      <c r="I111" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>330</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>203</v>
+      </c>
+      <c r="I112" t="s">
+        <v>164</v>
+      </c>
+      <c r="J112" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>162</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>332</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>203</v>
+      </c>
+      <c r="I113" t="s">
+        <v>164</v>
+      </c>
+      <c r="J113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>335</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" t="s">
+        <v>164</v>
+      </c>
+      <c r="J114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>337</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" t="s">
+        <v>164</v>
+      </c>
+      <c r="J115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>339</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>163</v>
+      </c>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+      <c r="J116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>341</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" t="s">
+        <v>164</v>
+      </c>
+      <c r="J117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>217</v>
+      </c>
+      <c r="I118" t="s">
+        <v>175</v>
+      </c>
+      <c r="J118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>347</v>
+      </c>
+      <c r="G119" t="s">
+        <v>158</v>
+      </c>
+      <c r="H119" t="s">
+        <v>217</v>
+      </c>
+      <c r="I119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>350</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>217</v>
+      </c>
+      <c r="I120" t="s">
+        <v>175</v>
+      </c>
+      <c r="J120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" t="s">
+        <v>352</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>145</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>217</v>
+      </c>
+      <c r="I121" t="s">
+        <v>175</v>
+      </c>
+      <c r="J121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" t="s">
+        <v>354</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>217</v>
+      </c>
+      <c r="I122" t="s">
+        <v>175</v>
+      </c>
+      <c r="J122" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" t="s">
+        <v>356</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>357</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>163</v>
+      </c>
+      <c r="I123" t="s">
+        <v>164</v>
+      </c>
+      <c r="J123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>203</v>
+      </c>
+      <c r="I124" t="s">
+        <v>164</v>
+      </c>
+      <c r="J124" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" t="s">
+        <v>361</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>362</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>163</v>
+      </c>
+      <c r="I125" t="s">
+        <v>164</v>
+      </c>
+      <c r="J125" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>217</v>
+      </c>
+      <c r="I126" t="s">
+        <v>175</v>
+      </c>
+      <c r="J126" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" t="s">
+        <v>369</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>370</v>
+      </c>
+      <c r="I127" t="s">
+        <v>371</v>
+      </c>
+      <c r="J127" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" t="s">
+        <v>374</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>375</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>376</v>
+      </c>
+      <c r="I128" t="s">
+        <v>371</v>
+      </c>
+      <c r="J128" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>367</v>
+      </c>
+      <c r="B129" t="s">
+        <v>377</v>
+      </c>
+      <c r="C129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>379</v>
+      </c>
+      <c r="G129" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129" t="s">
+        <v>376</v>
+      </c>
+      <c r="I129" t="s">
+        <v>371</v>
+      </c>
+      <c r="J129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>367</v>
+      </c>
+      <c r="B130" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>87</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>376</v>
+      </c>
+      <c r="I130" t="s">
+        <v>371</v>
+      </c>
+      <c r="J130" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>367</v>
+      </c>
+      <c r="B131" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" t="s">
+        <v>384</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>385</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>376</v>
+      </c>
+      <c r="I131" t="s">
+        <v>371</v>
+      </c>
+      <c r="J131" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>375</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>376</v>
+      </c>
+      <c r="I132" t="s">
+        <v>371</v>
+      </c>
+      <c r="J132" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>367</v>
+      </c>
+      <c r="B133" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>114</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>376</v>
+      </c>
+      <c r="I133" t="s">
+        <v>371</v>
+      </c>
+      <c r="J133" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" t="s">
+        <v>392</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>393</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>376</v>
+      </c>
+      <c r="I134" t="s">
+        <v>371</v>
+      </c>
+      <c r="J134" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>367</v>
+      </c>
+      <c r="B135" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" t="s">
+        <v>396</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>375</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>376</v>
+      </c>
+      <c r="I135" t="s">
+        <v>371</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>367</v>
+      </c>
+      <c r="B136" t="s">
+        <v>397</v>
+      </c>
+      <c r="C136" t="s">
+        <v>398</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>332</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>376</v>
+      </c>
+      <c r="I136" t="s">
+        <v>371</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>367</v>
+      </c>
+      <c r="B137" t="s">
+        <v>399</v>
+      </c>
+      <c r="C137" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>376</v>
+      </c>
+      <c r="I137" t="s">
+        <v>371</v>
+      </c>
+      <c r="J137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" t="s">
+        <v>403</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>404</v>
+      </c>
+      <c r="I138" t="s">
+        <v>405</v>
+      </c>
+      <c r="J138" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" t="s">
+        <v>407</v>
+      </c>
+      <c r="C139" t="s">
+        <v>408</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>404</v>
+      </c>
+      <c r="I139" t="s">
+        <v>405</v>
+      </c>
+      <c r="J139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>404</v>
+      </c>
+      <c r="I140" t="s">
+        <v>405</v>
+      </c>
+      <c r="J140" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>375</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>404</v>
+      </c>
+      <c r="I141" t="s">
+        <v>405</v>
+      </c>
+      <c r="J141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>401</v>
+      </c>
+      <c r="B142" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" t="s">
+        <v>417</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>418</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" t="s">
+        <v>404</v>
+      </c>
+      <c r="I142" t="s">
+        <v>405</v>
+      </c>
+      <c r="J142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>277</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>404</v>
+      </c>
+      <c r="I143" t="s">
+        <v>405</v>
+      </c>
+      <c r="J143" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" t="s">
+        <v>422</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>423</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>404</v>
+      </c>
+      <c r="I144" t="s">
+        <v>405</v>
+      </c>
+      <c r="J144" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" t="s">
+        <v>425</v>
+      </c>
+      <c r="C145" t="s">
+        <v>426</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>404</v>
+      </c>
+      <c r="I145" t="s">
+        <v>405</v>
+      </c>
+      <c r="J145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>401</v>
+      </c>
+      <c r="B146" t="s">
+        <v>427</v>
+      </c>
+      <c r="C146" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>404</v>
+      </c>
+      <c r="I146" t="s">
+        <v>405</v>
+      </c>
+      <c r="J146" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>401</v>
+      </c>
+      <c r="B147" t="s">
+        <v>429</v>
+      </c>
+      <c r="C147" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>431</v>
+      </c>
+      <c r="G147" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" t="s">
+        <v>404</v>
+      </c>
+      <c r="I147" t="s">
+        <v>405</v>
+      </c>
+      <c r="J147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" t="s">
+        <v>433</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>434</v>
+      </c>
+      <c r="G148" t="s">
+        <v>158</v>
+      </c>
+      <c r="H148" t="s">
+        <v>404</v>
+      </c>
+      <c r="I148" t="s">
+        <v>405</v>
+      </c>
+      <c r="J148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" t="s">
+        <v>435</v>
+      </c>
+      <c r="C149" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>111</v>
+      </c>
+      <c r="G149" t="s">
+        <v>158</v>
+      </c>
+      <c r="H149" t="s">
+        <v>404</v>
+      </c>
+      <c r="I149" t="s">
+        <v>405</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>401</v>
+      </c>
+      <c r="B150" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" t="s">
+        <v>71</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>438</v>
+      </c>
+      <c r="G150" t="s">
+        <v>158</v>
+      </c>
+      <c r="H150" t="s">
+        <v>404</v>
+      </c>
+      <c r="I150" t="s">
+        <v>405</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C151" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>441</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>404</v>
+      </c>
+      <c r="I151" t="s">
+        <v>405</v>
+      </c>
+      <c r="J151" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>443</v>
+      </c>
+      <c r="C152" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>404</v>
+      </c>
+      <c r="I152" t="s">
+        <v>405</v>
+      </c>
+      <c r="J152" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" t="s">
+        <v>447</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>143</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" t="s">
+        <v>404</v>
+      </c>
+      <c r="I153" t="s">
+        <v>405</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>401</v>
+      </c>
+      <c r="B154" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" t="s">
+        <v>447</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>332</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>404</v>
+      </c>
+      <c r="I154" t="s">
+        <v>405</v>
+      </c>
+      <c r="J154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>401</v>
+      </c>
+      <c r="B155" t="s">
+        <v>449</v>
+      </c>
+      <c r="C155" t="s">
+        <v>450</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>153</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" t="s">
+        <v>404</v>
+      </c>
+      <c r="I155" t="s">
+        <v>405</v>
+      </c>
+      <c r="J155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>451</v>
+      </c>
+      <c r="B156" t="s">
+        <v>452</v>
+      </c>
+      <c r="C156" t="s">
+        <v>453</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>114</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>454</v>
+      </c>
+      <c r="I156" t="s">
+        <v>455</v>
+      </c>
+      <c r="J156" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>451</v>
+      </c>
+      <c r="B157" t="s">
+        <v>457</v>
+      </c>
+      <c r="C157" t="s">
+        <v>458</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" t="s">
+        <v>454</v>
+      </c>
+      <c r="I157" t="s">
+        <v>455</v>
+      </c>
+      <c r="J157" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" t="s">
+        <v>460</v>
+      </c>
+      <c r="C158" t="s">
+        <v>461</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>99</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" t="s">
+        <v>454</v>
+      </c>
+      <c r="I158" t="s">
+        <v>455</v>
+      </c>
+      <c r="J158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>451</v>
+      </c>
+      <c r="B159" t="s">
+        <v>463</v>
+      </c>
+      <c r="C159" t="s">
+        <v>464</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>153</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" t="s">
+        <v>454</v>
+      </c>
+      <c r="I159" t="s">
+        <v>455</v>
+      </c>
+      <c r="J159" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>451</v>
+      </c>
+      <c r="B160" t="s">
+        <v>465</v>
+      </c>
+      <c r="C160" t="s">
+        <v>466</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>467</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>454</v>
+      </c>
+      <c r="I160" t="s">
+        <v>468</v>
+      </c>
+      <c r="J160" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>454</v>
+      </c>
+      <c r="I161" t="s">
+        <v>455</v>
+      </c>
+      <c r="J161" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" t="s">
+        <v>472</v>
+      </c>
+      <c r="C162" t="s">
+        <v>473</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>474</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" t="s">
+        <v>454</v>
+      </c>
+      <c r="I162" t="s">
+        <v>455</v>
+      </c>
+      <c r="J162" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>451</v>
+      </c>
+      <c r="B163" t="s">
+        <v>475</v>
+      </c>
+      <c r="C163" t="s">
+        <v>476</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>332</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>454</v>
+      </c>
+      <c r="I163" t="s">
+        <v>468</v>
+      </c>
+      <c r="J163" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" t="s">
+        <v>477</v>
+      </c>
+      <c r="C164" t="s">
+        <v>476</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>143</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>454</v>
+      </c>
+      <c r="I164" t="s">
+        <v>455</v>
+      </c>
+      <c r="J164" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>451</v>
+      </c>
+      <c r="B165" t="s">
+        <v>478</v>
+      </c>
+      <c r="C165" t="s">
+        <v>479</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>480</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>454</v>
+      </c>
+      <c r="I165" t="s">
+        <v>455</v>
+      </c>
+      <c r="J165" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" t="s">
+        <v>483</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>484</v>
+      </c>
+      <c r="I166" t="s">
+        <v>485</v>
+      </c>
+      <c r="J166" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>481</v>
+      </c>
+      <c r="B167" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>48</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>484</v>
+      </c>
+      <c r="I167" t="s">
+        <v>485</v>
+      </c>
+      <c r="J167" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>481</v>
+      </c>
+      <c r="B168" t="s">
+        <v>489</v>
+      </c>
+      <c r="C168" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>491</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>484</v>
+      </c>
+      <c r="I168" t="s">
+        <v>485</v>
+      </c>
+      <c r="J168" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>481</v>
+      </c>
+      <c r="B169" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>418</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>484</v>
+      </c>
+      <c r="I169" t="s">
+        <v>485</v>
+      </c>
+      <c r="J169" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>481</v>
+      </c>
+      <c r="B170" t="s">
+        <v>495</v>
+      </c>
+      <c r="C170" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>277</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>484</v>
+      </c>
+      <c r="I170" t="s">
+        <v>485</v>
+      </c>
+      <c r="J170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>481</v>
+      </c>
+      <c r="B171" t="s">
+        <v>497</v>
+      </c>
+      <c r="C171" t="s">
+        <v>498</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>499</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" t="s">
+        <v>484</v>
+      </c>
+      <c r="I171" t="s">
+        <v>485</v>
+      </c>
+      <c r="J171" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>481</v>
+      </c>
+      <c r="B172" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>79</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>484</v>
+      </c>
+      <c r="I172" t="s">
+        <v>485</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>481</v>
+      </c>
+      <c r="B173" t="s">
+        <v>502</v>
+      </c>
+      <c r="C173" t="s">
+        <v>503</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>114</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" t="s">
+        <v>484</v>
+      </c>
+      <c r="I173" t="s">
+        <v>485</v>
+      </c>
+      <c r="J173" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>481</v>
+      </c>
+      <c r="B174" t="s">
+        <v>504</v>
+      </c>
+      <c r="C174" t="s">
+        <v>505</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>151</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" t="s">
+        <v>484</v>
+      </c>
+      <c r="I174" t="s">
+        <v>485</v>
+      </c>
+      <c r="J174" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>481</v>
+      </c>
+      <c r="B175" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" t="s">
+        <v>507</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>508</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" t="s">
+        <v>484</v>
+      </c>
+      <c r="I175" t="s">
+        <v>485</v>
+      </c>
+      <c r="J175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>481</v>
+      </c>
+      <c r="B176" t="s">
+        <v>509</v>
+      </c>
+      <c r="C176" t="s">
+        <v>510</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>111</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" t="s">
+        <v>484</v>
+      </c>
+      <c r="I176" t="s">
+        <v>485</v>
+      </c>
+      <c r="J176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>481</v>
+      </c>
+      <c r="B177" t="s">
+        <v>511</v>
+      </c>
+      <c r="C177" t="s">
+        <v>512</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>513</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>484</v>
+      </c>
+      <c r="I177" t="s">
+        <v>485</v>
+      </c>
+      <c r="J177" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>481</v>
+      </c>
+      <c r="B178" t="s">
+        <v>514</v>
+      </c>
+      <c r="C178" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>516</v>
+      </c>
+      <c r="G178" t="s">
+        <v>158</v>
+      </c>
+      <c r="H178" t="s">
+        <v>484</v>
+      </c>
+      <c r="I178" t="s">
+        <v>485</v>
+      </c>
+      <c r="J178" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>481</v>
+      </c>
+      <c r="B179" t="s">
+        <v>517</v>
+      </c>
+      <c r="C179" t="s">
+        <v>518</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>431</v>
+      </c>
+      <c r="G179" t="s">
+        <v>158</v>
+      </c>
+      <c r="H179" t="s">
+        <v>484</v>
+      </c>
+      <c r="I179" t="s">
+        <v>485</v>
+      </c>
+      <c r="J179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>481</v>
+      </c>
+      <c r="B180" t="s">
+        <v>519</v>
+      </c>
+      <c r="C180" t="s">
+        <v>520</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>484</v>
+      </c>
+      <c r="I180" t="s">
+        <v>485</v>
+      </c>
+      <c r="J180" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>481</v>
+      </c>
+      <c r="B181" t="s">
+        <v>522</v>
+      </c>
+      <c r="C181" t="s">
+        <v>523</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" t="s">
+        <v>484</v>
+      </c>
+      <c r="I181" t="s">
+        <v>485</v>
+      </c>
+      <c r="J181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>481</v>
+      </c>
+      <c r="B182" t="s">
+        <v>524</v>
+      </c>
+      <c r="C182" t="s">
+        <v>525</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>526</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" t="s">
+        <v>484</v>
+      </c>
+      <c r="I182" t="s">
+        <v>485</v>
+      </c>
+      <c r="J182" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>481</v>
+      </c>
+      <c r="B183" t="s">
+        <v>528</v>
+      </c>
+      <c r="C183" t="s">
+        <v>529</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>55</v>
+      </c>
+      <c r="G183" t="s">
+        <v>530</v>
+      </c>
+      <c r="H183" t="s">
+        <v>484</v>
+      </c>
+      <c r="I183" t="s">
+        <v>485</v>
+      </c>
+      <c r="J183" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>481</v>
+      </c>
+      <c r="B184" t="s">
+        <v>532</v>
+      </c>
+      <c r="C184" t="s">
+        <v>533</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>44</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>484</v>
+      </c>
+      <c r="I184" t="s">
+        <v>485</v>
+      </c>
+      <c r="J184" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>481</v>
+      </c>
+      <c r="B185" t="s">
+        <v>534</v>
+      </c>
+      <c r="C185" t="s">
+        <v>535</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>143</v>
+      </c>
+      <c r="G185" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" t="s">
+        <v>484</v>
+      </c>
+      <c r="I185" t="s">
+        <v>61</v>
+      </c>
+      <c r="J185" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" t="s">
+        <v>536</v>
+      </c>
+      <c r="C186" t="s">
+        <v>535</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>332</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" t="s">
+        <v>484</v>
+      </c>
+      <c r="I186" t="s">
+        <v>485</v>
+      </c>
+      <c r="J186" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>481</v>
+      </c>
+      <c r="B187" t="s">
+        <v>537</v>
+      </c>
+      <c r="C187" t="s">
+        <v>538</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>145</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" t="s">
+        <v>484</v>
+      </c>
+      <c r="I187" t="s">
+        <v>485</v>
+      </c>
+      <c r="J187" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>481</v>
+      </c>
+      <c r="B188" t="s">
+        <v>540</v>
+      </c>
+      <c r="C188" t="s">
+        <v>541</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>153</v>
+      </c>
+      <c r="G188" t="s">
+        <v>158</v>
+      </c>
+      <c r="H188" t="s">
+        <v>484</v>
+      </c>
+      <c r="I188" t="s">
+        <v>485</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>481</v>
+      </c>
+      <c r="B189" t="s">
+        <v>542</v>
+      </c>
+      <c r="C189" t="s">
+        <v>543</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>311</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" t="s">
+        <v>484</v>
+      </c>
+      <c r="I189" t="s">
+        <v>485</v>
+      </c>
+      <c r="J189" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>544</v>
+      </c>
+      <c r="B190" t="s">
+        <v>545</v>
+      </c>
+      <c r="C190" t="s">
+        <v>546</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>99</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" t="s">
+        <v>547</v>
+      </c>
+      <c r="I190" t="s">
+        <v>548</v>
+      </c>
+      <c r="J190" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>544</v>
+      </c>
+      <c r="B191" t="s">
+        <v>550</v>
+      </c>
+      <c r="C191" t="s">
+        <v>546</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>139</v>
+      </c>
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" t="s">
+        <v>547</v>
+      </c>
+      <c r="I191" t="s">
+        <v>548</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>544</v>
+      </c>
+      <c r="B192" t="s">
+        <v>551</v>
+      </c>
+      <c r="C192" t="s">
+        <v>546</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>552</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" t="s">
+        <v>547</v>
+      </c>
+      <c r="I192" t="s">
+        <v>548</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>553</v>
+      </c>
+      <c r="B193" t="s">
+        <v>554</v>
+      </c>
+      <c r="C193" t="s">
+        <v>555</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>294</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" t="s">
+        <v>556</v>
+      </c>
+      <c r="I193" t="s">
+        <v>557</v>
+      </c>
+      <c r="J193" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>553</v>
+      </c>
+      <c r="B194" t="s">
+        <v>559</v>
+      </c>
+      <c r="C194" t="s">
+        <v>560</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>332</v>
+      </c>
+      <c r="G194" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" t="s">
+        <v>561</v>
+      </c>
+      <c r="I194" t="s">
+        <v>562</v>
+      </c>
+      <c r="J194" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>553</v>
+      </c>
+      <c r="B195" t="s">
+        <v>564</v>
+      </c>
+      <c r="C195" t="s">
+        <v>565</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>332</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" t="s">
+        <v>556</v>
+      </c>
+      <c r="I195" t="s">
+        <v>557</v>
+      </c>
+      <c r="J195" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>553</v>
+      </c>
+      <c r="B196" t="s">
+        <v>567</v>
+      </c>
+      <c r="C196" t="s">
+        <v>560</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>143</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" t="s">
+        <v>568</v>
+      </c>
+      <c r="I196" t="s">
+        <v>557</v>
+      </c>
+      <c r="J196" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>553</v>
+      </c>
+      <c r="B197" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" t="s">
+        <v>571</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>572</v>
+      </c>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>556</v>
+      </c>
+      <c r="I197" t="s">
+        <v>557</v>
+      </c>
+      <c r="J197" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>553</v>
+      </c>
+      <c r="B198" t="s">
+        <v>574</v>
+      </c>
+      <c r="C198" t="s">
+        <v>575</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>576</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" t="s">
+        <v>556</v>
+      </c>
+      <c r="I198" t="s">
+        <v>557</v>
+      </c>
+      <c r="J198" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>553</v>
+      </c>
+      <c r="B199" t="s">
+        <v>578</v>
+      </c>
+      <c r="C199" t="s">
+        <v>579</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>580</v>
+      </c>
+      <c r="G199" t="s">
+        <v>158</v>
+      </c>
+      <c r="H199" t="s">
+        <v>556</v>
+      </c>
+      <c r="I199" t="s">
+        <v>557</v>
+      </c>
+      <c r="J199" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>553</v>
+      </c>
+      <c r="B200" t="s">
+        <v>582</v>
+      </c>
+      <c r="C200" t="s">
+        <v>583</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" t="s">
+        <v>580</v>
+      </c>
+      <c r="G200" t="s">
+        <v>158</v>
+      </c>
+      <c r="H200" t="s">
+        <v>556</v>
+      </c>
+      <c r="I200" t="s">
+        <v>557</v>
+      </c>
+      <c r="J200" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>553</v>
+      </c>
+      <c r="B201" t="s">
+        <v>584</v>
+      </c>
+      <c r="C201" t="s">
+        <v>585</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>106</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" t="s">
+        <v>556</v>
+      </c>
+      <c r="I201" t="s">
+        <v>557</v>
+      </c>
+      <c r="J201" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>553</v>
+      </c>
+      <c r="B202" t="s">
+        <v>586</v>
+      </c>
+      <c r="C202" t="s">
+        <v>587</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
+        <v>151</v>
+      </c>
+      <c r="G202" t="s">
+        <v>158</v>
+      </c>
+      <c r="H202" t="s">
+        <v>556</v>
+      </c>
+      <c r="I202" t="s">
+        <v>557</v>
+      </c>
+      <c r="J202" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>553</v>
+      </c>
+      <c r="B203" t="s">
+        <v>588</v>
+      </c>
+      <c r="C203" t="s">
+        <v>589</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s">
+        <v>143</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" t="s">
+        <v>556</v>
+      </c>
+      <c r="I203" t="s">
+        <v>557</v>
+      </c>
+      <c r="J203" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>553</v>
+      </c>
+      <c r="B204" t="s">
+        <v>590</v>
+      </c>
+      <c r="C204" t="s">
+        <v>591</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
+        <v>286</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" t="s">
+        <v>556</v>
+      </c>
+      <c r="I204" t="s">
+        <v>557</v>
+      </c>
+      <c r="J204" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>553</v>
+      </c>
+      <c r="B205" t="s">
+        <v>593</v>
+      </c>
+      <c r="C205" t="s">
+        <v>589</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
+        <v>139</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" t="s">
+        <v>556</v>
+      </c>
+      <c r="I205" t="s">
+        <v>557</v>
+      </c>
+      <c r="J205" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>553</v>
+      </c>
+      <c r="B206" t="s">
+        <v>594</v>
+      </c>
+      <c r="C206" t="s">
+        <v>589</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>595</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" t="s">
+        <v>556</v>
+      </c>
+      <c r="I206" t="s">
+        <v>557</v>
+      </c>
+      <c r="J206" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AllResults.xlsx
+++ b/Data/AllResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D1AEF-1EFA-4534-BD65-8E8702855972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02594EC5-0668-419E-AEA7-16718EB42EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +344,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A361" sqref="A1:XFD361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
